--- a/report moi tuan/tuan 4/1159032-1359035-1359037-1359038.xlsx
+++ b/report moi tuan/tuan 4/1159032-1359035-1359037-1359038.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\itec\nam 3\HK3\Project Management\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\son long\Documents\PM---Group-10\report moi tuan\tuan 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>MSSV</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>làm giao diện cho website</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị sản phẩm </t>
+  </si>
+  <si>
+    <t>Hiển thị sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -177,13 +186,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,6 +720,23 @@
         <v>36</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1359037</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -716,10 +745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,6 +1013,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42496</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>1359037</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report moi tuan/tuan 4/1159032-1359035-1359037-1359038.xlsx
+++ b/report moi tuan/tuan 4/1159032-1359035-1359037-1359038.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\son long\Documents\PM---Group-10\report moi tuan\tuan 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ\Documents\PM---Group-10\report moi tuan\tuan 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
   <si>
     <t>MSSV</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Hiển thị sản phẩm</t>
+  </si>
+  <si>
+    <t>Cài đặt wamp và tạo Database cho website</t>
   </si>
 </sst>
 </file>
@@ -745,10 +748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,13 +820,13 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>1359037</v>
+        <v>1159032</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -834,13 +837,13 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>1359038</v>
+        <v>1359037</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,16 +851,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>1359037</v>
+        <v>1359038</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -868,30 +871,30 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>1359037</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>1359037</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -902,44 +905,44 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>1359038</v>
+        <v>1359037</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>1359038</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>1359037</v>
+        <v>1159032</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -950,16 +953,16 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>1359037</v>
+        <v>1359038</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -967,13 +970,13 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>1359038</v>
+        <v>1359037</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -981,16 +984,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2">
-        <v>42406</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>1359037</v>
+        <v>1159032</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -998,39 +1001,146 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2">
-        <v>42406</v>
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>1359037</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>1359038</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>1159032</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42406</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>1359037</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42406</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>1359037</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B20" s="3">
         <v>42496</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="D16">
-        <v>1359037</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
+      <c r="D20">
+        <v>1359037</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42557</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>1159032</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Chi tiết'!A5:A5</xm:f>
+              <xm:sqref>A5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>